--- a/Batch 2018-20/Sem 1/Grade Card - Single.xlsx
+++ b/Batch 2018-20/Sem 1/Grade Card - Single.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\SIMSR-Results-Generator\Batch 2018-20\Sem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6D057F-4AE8-4BB5-BF1A-664DA33C0495}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1389397C-B7CA-458A-8037-FB1024A7C00A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4C80AD8E-6BB5-43FA-A2DF-2A6A1A9D1C00}"/>
   </bookViews>
@@ -264,9 +264,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -280,47 +279,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -334,28 +327,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -405,7 +398,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2149"/>
+                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2150"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1873,70 +1866,6 @@
             <v>MMS18-20/125</v>
           </cell>
           <cell r="B126" t="str">
-            <v>*** (NOT AVAILABLE) ***</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127" t="str">
-            <v>MMS18-20/126</v>
-          </cell>
-          <cell r="B127" t="str">
-            <v>*** (NOT AVAILABLE) ***</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128" t="str">
-            <v>MMS18-20/127</v>
-          </cell>
-          <cell r="B128" t="str">
-            <v>*** (NOT AVAILABLE) ***</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129" t="str">
-            <v>MMS18-20/128</v>
-          </cell>
-          <cell r="B129" t="str">
-            <v>*** (NOT AVAILABLE) ***</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130" t="str">
-            <v>MMS18-20/129</v>
-          </cell>
-          <cell r="B130" t="str">
-            <v>*** (NOT AVAILABLE) ***</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131" t="str">
-            <v>MMS18-20/130</v>
-          </cell>
-          <cell r="B131" t="str">
-            <v>*** (NOT AVAILABLE) ***</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132" t="str">
-            <v>MMS18-20/131</v>
-          </cell>
-          <cell r="B132" t="str">
-            <v>*** (NOT AVAILABLE) ***</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133" t="str">
-            <v>MMS18-20/132</v>
-          </cell>
-          <cell r="B133" t="str">
-            <v>*** (NOT AVAILABLE) ***</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134" t="str">
-            <v>MMS18-20/133</v>
-          </cell>
-          <cell r="B134" t="str">
             <v>*** (NOT AVAILABLE) ***</v>
           </cell>
         </row>
@@ -29251,7 +29180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C8EAEB-E2F7-4568-A48C-2E5909074BE5}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:I7"/>
@@ -29259,608 +29188,591 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="str">
+      <c r="A9" s="8" t="str">
         <f>"NAME OF THE CANDIDATE : "&amp;VLOOKUP(D13,[1]Sheet1!$A:$B,2,0)</f>
         <v>NAME OF THE CANDIDATE : /ADIVAREKAR PRITI GIRIGHAR NAMRATA</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="str">
+      <c r="A11" s="8" t="str">
         <f>"HELD IN : "&amp;'[2]Subjects List'!$C$13</f>
         <v>HELD IN : JANUARY 2019</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="19" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="18" t="str">
+      <c r="B17" s="13" t="str">
         <f>'[2]Subjects List'!$C$4</f>
         <v>Perspective Management</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="3">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="2">
         <v>4</v>
       </c>
-      <c r="F17" s="3" t="str">
+      <c r="F17" s="2" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$F$135,6,0)</f>
         <v>F</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>4</v>
       </c>
-      <c r="H17" s="3" t="str">
+      <c r="H17" s="2" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$G$135,7,0)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <f>G17*H17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>2</v>
       </c>
-      <c r="B18" s="18" t="str">
+      <c r="B18" s="13" t="str">
         <f>'[2]Subjects List'!$C$5</f>
         <v>Financial Accounting</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="3">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="2">
         <v>4</v>
       </c>
-      <c r="F18" s="3" t="str">
+      <c r="F18" s="2" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$M$135,13,0)</f>
         <v>B</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>4</v>
       </c>
-      <c r="H18" s="3" t="str">
+      <c r="H18" s="2" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$N$135,14,0)</f>
         <v>6</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <f t="shared" ref="I18:I24" si="0">G18*H18</f>
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>3</v>
       </c>
-      <c r="B19" s="18" t="str">
+      <c r="B19" s="13" t="str">
         <f>'[2]Subjects List'!$C$6</f>
         <v>Business Statistics</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="3">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="2">
         <v>4</v>
       </c>
-      <c r="F19" s="3" t="str">
+      <c r="F19" s="2" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$T$135,20,0)</f>
         <v>B</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>4</v>
       </c>
-      <c r="H19" s="3" t="str">
+      <c r="H19" s="2" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$U$135,21,0)</f>
         <v>6</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>4</v>
       </c>
-      <c r="B20" s="18" t="str">
+      <c r="B20" s="13" t="str">
         <f>'[2]Subjects List'!$C$7</f>
         <v>Operations Management</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="3">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="2">
         <v>4</v>
       </c>
-      <c r="F20" s="3" t="str">
+      <c r="F20" s="2" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AA$135,27,0)</f>
         <v>B</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>4</v>
       </c>
-      <c r="H20" s="3" t="str">
+      <c r="H20" s="2" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AB$135,28,0)</f>
         <v>6</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="18" t="str">
+      <c r="B21" s="13" t="str">
         <f>'[2]Subjects List'!$C$8</f>
         <v>Managerial Economics</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="3">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="2">
         <v>4</v>
       </c>
-      <c r="F21" s="3" t="str">
+      <c r="F21" s="2" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AH$135,34,0)</f>
         <v>B</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>4</v>
       </c>
-      <c r="H21" s="3" t="str">
+      <c r="H21" s="2" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AI$135,35,0)</f>
         <v>6</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="18" t="str">
+      <c r="B22" s="13" t="str">
         <f>'[2]Subjects List'!$C$9</f>
         <v>Effective and Management Communication</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="3">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="2">
         <v>4</v>
       </c>
-      <c r="F22" s="3" t="str">
+      <c r="F22" s="2" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AO$135,41,0)</f>
         <v>B</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>4</v>
       </c>
-      <c r="H22" s="3" t="str">
+      <c r="H22" s="2" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AP$135,42,0)</f>
         <v>6</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>7</v>
       </c>
-      <c r="B23" s="18" t="str">
+      <c r="B23" s="13" t="str">
         <f>'[2]Subjects List'!$C$10</f>
         <v>Negotiation and Selling Skills</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="3">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="2">
         <v>4</v>
       </c>
-      <c r="F23" s="3" t="str">
+      <c r="F23" s="2" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AV$135,48,0)</f>
         <v>B</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>4</v>
       </c>
-      <c r="H23" s="3" t="str">
+      <c r="H23" s="2" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AW$135,49,0)</f>
         <v>6</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>8</v>
       </c>
-      <c r="B24" s="18" t="str">
+      <c r="B24" s="13" t="str">
         <f>'[2]Subjects List'!$C$11</f>
         <v>Organisational Behaviour</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="3">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="2">
         <v>4</v>
       </c>
-      <c r="F24" s="3" t="str">
+      <c r="F24" s="2" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BC$135,55,0)</f>
         <v>B</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>4</v>
       </c>
-      <c r="H24" s="3" t="str">
+      <c r="H24" s="2" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BD$135,56,0)</f>
         <v>6</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="29" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5">
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4">
         <f>SUM(G17:G24)</f>
         <v>32</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="6">
+      <c r="H25" s="3"/>
+      <c r="I25" s="5">
         <f>SUM(I17:I24)</f>
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="str">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="str">
         <f>"Remark    :  "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BM$122,65,0)</f>
         <v>Remark    :  Unsuccessful</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="11" t="str">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22" t="str">
         <f>"SGPI : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BN$122,66,0)</f>
         <v>SGPI : 5.25</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="11" t="str">
+      <c r="F26" s="23"/>
+      <c r="G26" s="22" t="str">
         <f>"Overall Grade : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BO$122,67,0)</f>
         <v>Overall Grade : C</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="7" t="str">
+      <c r="H26" s="23"/>
+      <c r="I26" s="29" t="str">
         <f>"Range : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BP$122,68,0)</f>
         <v>Range : 55-59.99</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15" t="str">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26" t="str">
         <f>'[2]Subjects List'!$C$15</f>
         <v>10/02/2019</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="16"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B30"/>
-      <c r="C30" s="2"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
+      <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E31"/>
-      <c r="G31" s="9" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x9S6RkJxY2uMsNbT4A3srL6TwSDcPlXgDKgVdPh7BOKRgw/BX1Ux/kn68m9NeXHF7ZIN+T9FHSxoTJbykBbf0Q==" saltValue="yKlTIDWS8mBnAYzrJCpM0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="R01OWjIcf9FhdzYiasPz0qP0UlqEy9hzB0Dmc3lorsiSaOzrHMe+4LpnpakBkMrlaxg0QPUwIYfCPaPtK433KQ==" saltValue="588Ppm+Nub8k6H641zbDFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="D13" name="Seat No."/>
   </protectedRanges>
   <mergeCells count="36">
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="A1:I7"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="A35:I35"/>
@@ -29877,26 +29789,6 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <pageMargins left="0.69" right="0" top="0.78740157480314965" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
